--- a/medicine/Enfance/Le_Chat_qui_clignait_de_l'œil/Le_Chat_qui_clignait_de_l'œil.xlsx
+++ b/medicine/Enfance/Le_Chat_qui_clignait_de_l'œil/Le_Chat_qui_clignait_de_l'œil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Chat_qui_clignait_de_l%27%C5%93il</t>
+          <t>Le_Chat_qui_clignait_de_l'œil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Chat qui clignait de l'œil (titre original : The Secret of the Crooked Cat) est un roman américain écrit par Robert Arthur, Jr. et William Arden, paru en 1970 aux États-Unis. Il fait partie de la série policière pour adolescents Les Trois Jeunes Détectives.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Chat_qui_clignait_de_l%27%C5%93il</t>
+          <t>Le_Chat_qui_clignait_de_l'œil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fête foraine s'installe dans la ville. Les « trois jeunes détectives » (Hannibal Jones, Peter Crench et Bob Andy) rencontrent un jeune forain de leur âge, Ronny Carson. Le jeune forain se fait voler une peluche. Le voleur est poursuivi par Hannibal et laisse tomber la peluche à terre. Les jeunes gens se demandent pourquoi le voleur a tenté de voler cette peluche, car elle est fort moche. Il manque un œil au chat, les poils en nylon sont délavés, etc. Peu après, la porte de la cage du lion est ouverte par une main malveillante, et au cours de son face-à-face avec la bête, Hannibal perd la peluche.
 Puis les jeunes gens apprennent que durant les dernière semaines, les forains ont dû faire face à divers problèmes, notamment un incendie qui a causé des dégâts importants. Cela est-il en lien avec le mystérieux voleur de chat en peluche ?
